--- a/PagineHtml/7-Quaderni, block-notes e agende personalizzabili all'ingrosso | notebooks journals planners custom logo wholesale manufacturer.xlsx
+++ b/PagineHtml/7-Quaderni, block-notes e agende personalizzabili all'ingrosso | notebooks journals planners custom logo wholesale manufacturer.xlsx
@@ -544,49 +544,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026 2027 stampa personalizzata Logo gratitudine manifestazione salute mentale donne preghiera Planner diario taccuino con scatola</t>
+          <t>Prosub all'ingrosso sublimazione spazi vuoti Notebook diario stampa personalizzata immagine sublimazione tessuto tela blocco note quaderni sublimazione</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,3378-1,73 €</t>
+          <t>2,04-3,90 €</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 10 parti</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Double-Win (beijing) International Trade Co., Ltd.</t>
+          <t>Dongguan Prosub Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LOGO personalizzabile di alta qualità Planner in pelle sintetica allacciatura taccuino con copertina rigida Agenda diario ufficio Business regali fornitore</t>
+          <t>6x8 Organizer di marca diari personalizzati pianificatore all'ingrosso Agenda diario personalizzato 2026</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,91-2,30 €</t>
+          <t>1,39-1,65 €</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wenzhou Yisan Trade Co., Ltd.</t>
+          <t>Taizhou Eego Industry And Trade Co., Ltd.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,49 +598,49 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Set di taccuini di alta qualità A4 Logo personalizzato diario alla moda copertina rigida in pelle rigida con design economico</t>
+          <t>Logo personalizzabile stampa Retro blocco note all'ingrosso con copertina rigida personalizzata Agenda ufficio Planner scuola quaderno diario regalo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2,17-2,69 €</t>
+          <t>0,5197-4,25 €</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WENZHOU IMAGE DIGITAL PRINTING CO., LTD.</t>
+          <t>CM Printing Shenzhen Co., Ltd.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Set regalo per penna promozionale per diario A5 con copertina in pelle PU con stampa personalizzata</t>
+          <t>Quaderno personalizzabile A5 a buon mercato all'ingrosso con quaderno personalizzato in pelle con copertina rigida Logo diario di carta pianificatori scuola di copertina</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2,07-3,46 €</t>
+          <t>0,3032-2,43 €</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wenzhou Liushun Crafts &amp; Gifts Co., Ltd.</t>
+          <t>Ningbo Style Stationery Co., Ltd.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,49 +652,49 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Prosub all'ingrosso sublimazione spazi vuoti Notebook diario stampa personalizzata immagine sublimazione tessuto tela blocco note quaderni sublimazione</t>
+          <t>Prezzo di fabbricazione all'ingrosso Fashion planner logo personalizzato PU leather A5 A6 Notebook blocco note Agenda diario personalizzato</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2,04-3,90 €</t>
+          <t>0,9094-1,13 €</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dongguan Prosub Technology Co., Ltd.</t>
+          <t>Shanghai Tinghao Stationery Co., Ltd.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6x8 Organizer di marca diari personalizzati pianificatore all'ingrosso Agenda diario personalizzato 2026</t>
+          <t>Diari su misura goffratura posteriore rigida a spirale vuota Journal stampa personalizzata all'ingrosso sublimazione Custom Notebook Cover rigida a spirale</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1,39-1,65 €</t>
+          <t>0,8661-1,74 €</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Taizhou Eego Industry And Trade Co., Ltd.</t>
+          <t>Dongguan Yonghao Culture Creative Co., Ltd.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,103 +706,103 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Logo personalizzabile stampa Retro blocco note all'ingrosso con copertina rigida personalizzata Agenda ufficio Planner scuola quaderno diario regalo</t>
+          <t>A5 all'ingrosso personalizzato con cinturino elastico diario diario taccuino stampato Logo del marchio diario taccuino in pelle per appunti</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,5197-4,25 €</t>
+          <t>1,47 €</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CM Printing Shenzhen Co., Ltd.</t>
+          <t>Hangzhou Zimi Gift Co., Ltd.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Quaderno personalizzabile A5 a buon mercato all'ingrosso con quaderno personalizzato in pelle con copertina rigida Logo diario di carta pianificatori scuola di copertina</t>
+          <t>All'ingrosso In massa diario quotidiano Planner personalizzato A5 diario di promozione cartonato In pelle sintetica diario taccuino</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,3032-2,43 €</t>
+          <t>0,4158-0,7622 €</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ningbo Style Stationery Co., Ltd.</t>
+          <t>YWJC DAILY INC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Prezzo di fabbricazione all'ingrosso Fashion planner logo personalizzato PU leather A5 A6 Notebook blocco note Agenda diario personalizzato</t>
+          <t>Logo personalizzabile A5 cinturino in pelle taccuino con copertina rigida Planner Business Office School carta diario regalo all'ingrosso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,9094-1,13 €</t>
+          <t>0,7276 €</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Shanghai Tinghao Stationery Co., Ltd.</t>
+          <t>Guangzhou Yunchun Stationery Co., Ltd.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Diari su misura goffratura posteriore rigida a spirale vuota Journal stampa personalizzata all'ingrosso sublimazione Custom Notebook Cover rigida a spirale</t>
+          <t>Fabbrica all'ingrosso logo personalizzato Black Journal A5 fantasia in pelle Pu Notebook con tasca completamente personalizzabile diario</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,8661-1,74 €</t>
+          <t>0,8575-1,99 €</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 10 unità</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dongguan Yonghao Culture Creative Co., Ltd.</t>
+          <t>Wenzhou Yisan Trade Co., Ltd.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,39 +814,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A5 all'ingrosso personalizzato con cinturino elastico diario diario taccuino stampato Logo del marchio diario taccuino in pelle per appunti</t>
+          <t>2022 quaderni in pelle stampati con Logo personalizzato promozionale produttore all'ingrosso quaderno con copertina rigida Planner Journal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1,47 €</t>
+          <t>1,09 €</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 2 parti</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hangzhou Zimi Gift Co., Ltd.</t>
+          <t>Yiwu Ouhong Crafts Factory</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>All'ingrosso In massa diario quotidiano Planner personalizzato A5 diario di promozione cartonato In pelle sintetica diario taccuino</t>
+          <t>Consegna rapida 2025 Agenda spagnola per Notebook in pelle sintetica calendario 5 Agenda quotidiana settimanale Logo personalizzato diario all'ingrosso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,4158-0,7622 €</t>
+          <t>1,04 €</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YWJC DAILY INC</t>
+          <t>Wenzhou Pinyange Stationery Co., Ltd.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,22 +868,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Logo personalizzabile A5 cinturino in pelle taccuino con copertina rigida Planner Business Office School carta diario regalo all'ingrosso</t>
+          <t>Notebook all'ingrosso OEM/ODM personalizzabili A5 Journal personalizzato stampato Notebook A5 organizzatore di studio pianificatore quotidiano con Logo 2026</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,7276 €</t>
+          <t>0,7709-1,91 €</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Guangzhou Yunchun Stationery Co., Ltd.</t>
+          <t>Guangzhou Jinxu Paper Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -895,130 +895,126 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fabbrica all'ingrosso logo personalizzato Black Journal A5 fantasia in pelle Pu Notebook con tasca completamente personalizzabile diario</t>
+          <t>Blocco note molto bello b5 fornitore di planner personalizzato colore nero stampa agenda quotidiana 2025 spagnolo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,8575-1,99 €</t>
+          <t>0,4851-0,9701 €</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 unità</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wenzhou Yisan Trade Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
+          <t>YUHE PRINT COMPANY LIMITED</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022 quaderni in pelle stampati con Logo personalizzato promozionale produttore all'ingrosso quaderno con copertina rigida Planner Journal</t>
+          <t>All'ingrosso in massa diario quotidiano Planner personalizzato A5 diario di promozione cartonato in pelle sintetica diario taccuino</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1,09 €</t>
+          <t>0,4331-0,9527 €</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yiwu Ouhong Crafts Factory</t>
+          <t>Shenzhen Jia You Guang Printing Co., Ltd.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Consegna rapida 2025 Agenda spagnola per Notebook in pelle sintetica calendario 5 Agenda quotidiana settimanale Logo personalizzato diario all'ingrosso</t>
+          <t>Fabbrica all'ingrosso di colore A5 diari 200-240 pagine logo personalizzato Business PU notebook promozionali forniture per ufficio</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1,04 €</t>
+          <t>0,9354-2,27 €</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wenzhou Pinyange Stationery Co., Ltd.</t>
+          <t>Dongguan Ustar Culture Sports Co., Ltd.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Notebook all'ingrosso OEM/ODM personalizzabili A5 Journal personalizzato stampato Notebook A5 organizzatore di studio pianificatore quotidiano con Logo 2026</t>
+          <t>Vendita calda personalizzato A5 A6 planner stampa a buon mercato alla rinfusa quaderni produttori</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,7709-1,91 €</t>
+          <t>1,26 €</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 200 parti</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Guangzhou Jinxu Paper Products Co., Ltd.</t>
+          <t>Hangzhou Let's Party Co., Ltd.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>All'ingrosso In massa diario quotidiano Planner personalizzato A5 diario di promozione cartonato In pelle sintetica diario taccuino</t>
+          <t>2026 2027 stampa personalizzata Logo gratitudine manifestazione salute mentale donne preghiera Planner diario taccuino con scatola</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,2945-0,5197 €</t>
+          <t>0,3378-1,73 €</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hangzhou Ownerparty Gift Co., Ltd.</t>
+          <t>Double-Win (beijing) International Trade Co., Ltd.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,22 +1026,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Blocco note molto bello b5 fornitore di planner personalizzato colore nero stampa agenda quotidiana 2025 spagnolo</t>
+          <t>Commercio all'ingrosso Profesional produttore personalizzato A5 pelle Pu stampa rigida riviste Logo pianificatori Note libro scuola taccuino</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,4851-0,9701 €</t>
+          <t>0,9874-1,24 €</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 parti</t>
+          <t>Ordine minimo: 300 parti</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YUHE PRINT COMPANY LIMITED</t>
+          <t>Guangxi Sinniko Stationery Co., Ltd.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1053,22 +1049,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stampa personalizzata A5 diario degli studenti della scuola in pelle rilegatrice Journal Notebook A5 Custom Notebook Planner Book</t>
+          <t>Taccuino personalizzato con Logo sublimato carta per Notebook a buon mercato alla rinfusa nera Kawaii carino sublimazione a spirale taccuino personalizzabile</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,4504-0,9181 €</t>
+          <t>0,4331-1,30 €</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dongguan Jiarui Cultural Creative Co., Ltd.</t>
+          <t>Kunshan Standard Gifts Co., Ltd.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1080,76 +1076,76 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>All'ingrosso in massa diario quotidiano Planner personalizzato A5 diario di promozione cartonato in pelle sintetica diario taccuino</t>
+          <t>Commercio all'ingrosso di alta qualità personalizzabile Logo carino scrittura diario quaderni stampati per gli studenti delle scuole</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,4331-0,9527 €</t>
+          <t>1,30-3,04 €</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 50 insiemi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Shenzhen Jia You Guang Printing Co., Ltd.</t>
+          <t>Dongguan Jiarui Cultural Creative Co., Ltd.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025 Wholesale Customizable Logo Pu Leather Cover A5 English Diary Journal Agendas Notebook For Students</t>
+          <t>LC665 Logo personalizzato in fabbrica A6 A5 stampa di diario all'ingrosso regalo regalo personalizzato con copertina rigida quaderni con portapenne</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,3378-1,73 €</t>
+          <t>0,537-0,8055 €</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ordine minimo: 300 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Double-Win (beijing) International Trade Co., Ltd.</t>
+          <t>Shenzhen Longtrans Chan Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fabbrica all'ingrosso di colore A5 diari 200-240 pagine logo personalizzato Business PU notebook promozionali forniture per ufficio</t>
+          <t>Commercio all'ingrosso della fabbrica 2026 PU diario Planner in pelle programma taccuino diario Agenda con Logo personalizzato e pagina interna Die Cut Index</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,9354-2,27 €</t>
+          <t>1,52-2,59 €</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 1.000 parti</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dongguan Ustar Culture Sports Co., Ltd.</t>
+          <t>Wenzhou Jiechu Craft &amp; Gift Co., Ltd.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1161,80 +1157,88 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025 Logo personalizzabile A5 a spirale Planner Notebook con copertina rigida ad alta Organizer per adolescenti</t>
+          <t>Fornitura diretta in fabbrica A5 taccuino in pelle diario Logo personalizzato semplice Business Planner formato a spirale copertina rigida per ufficio regalo Pu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5,69 €</t>
+          <t>0,7362-0,8488 €</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1 unità</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dongguan Shengyi Cultural And Creative Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>Longgang Yunzhi Stationery Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vendita calda personalizzato A5 A6 planner stampa a buon mercato alla rinfusa quaderni produttori</t>
+          <t>Taccuino con marchio aziendale OEM regalo sfuso in pelle personalizzata A5 diario per studenti | Copertina rigida stampa agenda OEM fornitura</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1,26 €</t>
+          <t>0,9527-1,22 €</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ordine minimo: 200 parti</t>
+          <t>Ordine minimo: 1 parte</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hangzhou Let's Party Co., Ltd.</t>
+          <t>Hangzhou Sowell Care Co., Ltd.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso Profesional produttore personalizzato A5 pelle Pu stampa rigida riviste Logo pianificatori Note libro scuola taccuino</t>
+          <t>Produttore di alta qualità taccuino all'ingrosso in pelle custom journals planner logo personalizzato business notebook e penna set regalo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,9874-1,24 €</t>
+          <t>2,59 €</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ordine minimo: 300 parti</t>
+          <t>Ordine minimo: 20 insiemi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Guangxi Sinniko Stationery Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>Yiwu Hemengyuan Import And Export Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Taccuino personalizzato con Logo sublimato carta per Notebook a buon mercato alla rinfusa nera Kawaii carino sublimazione a spirale taccuino personalizzabile</t>
+          <t>Quaderni per diario stampa Logo personalizzato pianificatore settimanale produzione stampa di taccuini per pianificatori all'ingrosso</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1244,110 +1248,110 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kunshan Standard Gifts Co., Ltd.</t>
+          <t>Come2print (guangzhou) Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso di alta qualità personalizzabile Logo carino scrittura diario quaderni stampati per gli studenti delle scuole</t>
+          <t>Sito web di massa a buon mercato ufficio diaries cancelleria commercio all'ingrosso logo personalizzato stampato del fumetto diario taccuino di carta made in china</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1,30-3,04 €</t>
+          <t>0,3811 €</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 insiemi</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dongguan Jiarui Cultural Creative Co., Ltd.</t>
+          <t>Yiwu Twins Win Import &amp; Export Co., Ltd.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LC665 Logo personalizzato in fabbrica A6 A5 stampa di diario all'ingrosso regalo regalo personalizzato con copertina rigida quaderni con portapenne</t>
+          <t>Prezzo di fabbrica all'ingrosso Logo personalizzato personalizzato stampa 2024 copertina rigida a spirale carta Note libro diario diario Planner Notebook</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,537-0,8055 €</t>
+          <t>1,74 €</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 500 insiemi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shenzhen Longtrans Chan Technology Co., Ltd.</t>
+          <t>Guangzhou Shanghua Color Printing Co., Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso della fabbrica 2026 PU diario Planner in pelle programma taccuino diario Agenda con Logo personalizzato e pagina interna Die Cut Index</t>
+          <t>Blocco note per taccuino personalizzato A5 con copertina morbida stampato Logo del marchio contabile Planner cartoleria in pelle</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1,52-2,59 €</t>
+          <t>0,563-1,43 €</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 2 parti</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wenzhou Jiechu Craft &amp; Gift Co., Ltd.</t>
+          <t>Hangzhou Yuanji Gift Co., Ltd.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fornitura diretta in fabbrica A5 taccuino in pelle diario Logo personalizzato semplice Business Planner formato a spirale copertina rigida per ufficio regalo Pu</t>
+          <t>Logo personalizzato di alta qualità A5 fabbrica all'ingrosso Note Book fantasia pagina vuota diario diario taccuini di lino copertina rigida</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,7362-0,8488 €</t>
+          <t>0,8488-1,34 €</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1357,290 +1361,286 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Longgang Yunzhi Stationery Co., Ltd.</t>
+          <t>Jinhua Jincai Stationery Co., Ltd.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Taccuino con marchio aziendale OEM regalo sfuso in pelle personalizzata A5 diario per studenti | Copertina rigida stampa agenda OEM fornitura</t>
+          <t>Fornitura di fabbrica all'ingrosso Logo personalizzato diario ufficio in pelle per studenti taccuino sentore 2024 di viaggio</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,9527-1,22 €</t>
+          <t>1,45-2,39 €</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1 parte</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hangzhou Sowell Care Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>ALBORZ ENTERPRISES</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Produttore di alta qualità taccuino all'ingrosso in pelle custom journals planner logo personalizzato business notebook e penna set regalo</t>
+          <t>Taccuini regalo a prezzi di fabbrica personalizzabili a spirale riviste di cancelleria Planner diario Logo personalizzato Note Book copertina rigida</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2,59 €</t>
+          <t>0,4158-0,8488 €</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20 insiemi</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Yiwu Hemengyuan Import And Export Co., Ltd.</t>
+          <t>Idea Gift (ningbo) Co., Ltd.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Quaderni per diario stampa Logo personalizzato pianificatore settimanale produzione stampa di taccuini per pianificatori all'ingrosso</t>
+          <t>Commercio all'ingrosso di carta hardcover notebook da ufficio planner a5 a4 a6 riviste Agenda Diario logo Personalizzato Blocchetto Per Appunti</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,4331-1,30 €</t>
+          <t>0,5197 €</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 parti</t>
+          <t>Ordine minimo: 60 parti</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Come2print (guangzhou) Technology Co., Ltd.</t>
+          <t>Shandong Glad Stationery &amp; Gift Co.,ltd</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sito web di massa a buon mercato ufficio diaries cancelleria commercio all'ingrosso logo personalizzato stampato del fumetto diario taccuino di carta made in china</t>
+          <t>All'ingrosso all'ingrosso su misura A5 cuoio del giornale di cuoio del calendario quotidiano del diario del taccuino a foglia larga per uso della scuola A6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,3811 €</t>
+          <t>1,09 €</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yiwu Twins Win Import &amp; Export Co., Ltd.</t>
+          <t>Dongguan Liyang Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Prezzo di fabbrica all'ingrosso Logo personalizzato personalizzato stampa 2024 copertina rigida a spirale carta Note libro diario diario Planner Notebook</t>
+          <t>All'ingrosso In massa diario quotidiano Planner personalizzato A5 diario di promozione cartonato In pelle sintetica diario taccuino</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1,74 €</t>
+          <t>0,2945-0,5197 €</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 insiemi</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Guangzhou Shanghua Color Printing Co., Ltd.</t>
+          <t>Hangzhou Ownerparty Gift Co., Ltd.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Blocco note per taccuino personalizzato A5 con copertina morbida stampato Logo del marchio contabile Planner cartoleria in pelle</t>
+          <t>Taccuino in pelle sintetica diario di promozione personalizzata di alta qualità all'ingrosso del diario di pianificazione quotidiana</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,563-1,43 €</t>
+          <t>0,5197 €</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hangzhou Yuanji Gift Co., Ltd.</t>
+          <t>Shenzhen Xinrxin Paper Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Logo personalizzato di alta qualità A5 fabbrica all'ingrosso Note Book fantasia pagina vuota diario diario taccuini di lino copertina rigida</t>
+          <t>Quaderni di composizione all'ingrosso,</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,8488-1,34 €</t>
+          <t>3,04 €</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 1 parte</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jinhua Jincai Stationery Co., Ltd.</t>
+          <t>Guangzhou Hangtong Packing Products Factory</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fornitura di fabbrica all'ingrosso Logo personalizzato diario ufficio in pelle per studenti taccuino sentore 2024 di viaggio</t>
+          <t>Notebook personalizzati alla rinfusa stampa a spirale pianificatori di diari e riviste fabbrica diretta all'ingrosso</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1,45-2,39 €</t>
+          <t>2,26-2,60 €</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 20 insiemi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ALBORZ ENTERPRISES</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>Shantou Chaonan District Lugang Lezhu Stationery Factory</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Taccuini regalo a prezzi di fabbrica personalizzabili a spirale riviste di cancelleria Planner diario Logo personalizzato Note Book copertina rigida</t>
+          <t>Taccuini di rilegatura a spirale all'ingrosso per regalo promozionale settimanale con stampa di linea di agenda con design logo personalizzato</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,4158-0,8488 €</t>
+          <t>0,4331 €</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 1 unità</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Idea Gift (ningbo) Co., Ltd.</t>
+          <t>Guangzhou Minglai Packaging Co., Ltd.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso di carta hardcover notebook da ufficio planner a5 a4 a6 riviste Agenda Diario logo Personalizzato Blocchetto Per Appunti</t>
+          <t>Diari del pianificatore inglese personalizzati all'ingrosso della fabbrica del taccuino di legno del progettista di colore su misura di alta qualità</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,5197 €</t>
+          <t>0,8661-1,74 €</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ordine minimo: 60 parti</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Shandong Glad Stationery &amp; Gift Co.,ltd</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
+          <t>OLIVIA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>All'ingrosso all'ingrosso su misura A5 cuoio del giornale di cuoio del calendario quotidiano del diario del taccuino a foglia larga per uso della scuola A6</t>
+          <t>JX1 all'ingrosso promozionale A4 A5 A6 personalizzato Logo taccuino diario copertina rigida Planner personalizzato stampato diario taccuini con Logo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1,09 €</t>
+          <t>0,2512-0,563 €</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1650,95 +1650,91 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Dongguan Liyang Technology Co., Ltd.</t>
+          <t>Jintailin Technology (shenzhen) Co., Ltd.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Taccuino in pelle sintetica diario di promozione personalizzata di alta qualità all'ingrosso del diario di pianificazione quotidiana</t>
+          <t>Taccuino del diario di composizione dell'insegnante di studio settimanale con Logo personalizzato promozionale</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,5197 €</t>
+          <t>1,39-1,56 €</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 10 parti</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Shenzhen Xinrxin Paper Products Co., Ltd.</t>
+          <t>Pingyang Feifan Stationery Co., Ltd.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Quaderni di composizione all'ingrosso,</t>
+          <t>Bambino Milestone Ufficiale Nota Planners Agenda 2020 Organizer Stampa Personalizzata Riviste Notebook con Logo All'ingrosso</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3,04 €</t>
+          <t>0,0867-0,4331 €</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1 parte</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Guangzhou Hangtong Packing Products Factory</t>
+          <t>Shenzhen Billie Cultural Tech Ltd.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Notebook personalizzati alla rinfusa stampa a spirale pianificatori di diari e riviste fabbrica diretta all'ingrosso</t>
+          <t>Commercio all'ingrosso scuola blocco di alta qualità retrò Eco Friendly diario personalizzato taccuino di scuola all'ingrosso con Logo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2,26-2,60 €</t>
+          <t>0,5197 €</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20 insiemi</t>
+          <t>Ordine minimo: 300 parti</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shantou Chaonan District Lugang Lezhu Stationery Factory</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
+          <t>Hangzhou All Yeah Import And Export Co., Ltd</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
